--- a/biology/Zoologie/Chasse_photographique/Chasse_photographique.xlsx
+++ b/biology/Zoologie/Chasse_photographique/Chasse_photographique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pratique de la chasse (ou l'influence de cette pratique) a engendré, pour certains amateurs de photographie, la création d'une discipline propre : la chasse photographique dans laquelle un photographe, dans l'intention de ramener des images d'animaux, utilise les moyens et les techniques empruntés aux chasseurs traditionnels pour approcher des animaux.
 Là où l'objectif premier du chasseur est de tuer un animal afin de ramener une source de protéine sauvage, celui qui pratique la chasse photographique ne rapportera que des images comme trophée.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,16 +552,87 @@
           <t>Matériel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Presque n'importe quel matériel photographique est utilisable si l'on tient compte des contraintes propres à ce type de photographie :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Presque n'importe quel matériel photographique est utilisable si l'on tient compte des contraintes propres à ce type de photographie :
 Faible lumière ou animaux très mobiles
-Nécessaire discrétion ou camouflage
-Équipement photographique
-Cela se traduit souvent par l'utilisation d'objectifs photographiques de longue focale (par exemple, il est courant de dire que la photographie d'oiseau demande au moins un 300 mm). 
+Nécessaire discrétion ou camouflage</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chasse_photographique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chasse_photographique</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Matériel</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Équipement photographique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cela se traduit souvent par l'utilisation d'objectifs photographiques de longue focale (par exemple, il est courant de dire que la photographie d'oiseau demande au moins un 300 mm). 
 Les objectifs les plus lumineux (malgré leur prix qui peut atteindre des sommets inabordables) permettent également d'utiliser des vitesses de déclenchement élevées ou de compenser le manque de lumière (en particulier sous un couvert végétal ou aux heures de faible lumière pour les animaux nocturnes ou les plus farouches)[réf. nécessaire].
-Équipement de discrétion
-Le camouflage reste un élément central de la chasse photographique. Les animaux sont généralement très farouches et tous les moyens sont bons pour se dissimuler à tous les sens des sujets à approcher.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chasse_photographique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chasse_photographique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Matériel</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Équipement de discrétion</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le camouflage reste un élément central de la chasse photographique. Les animaux sont généralement très farouches et tous les moyens sont bons pour se dissimuler à tous les sens des sujets à approcher.
 Un peu à la manière d'un prédateur, le photographe doit transformer son apparence. Les vêtements avec peu de formes reconnaissables (parfois avec des formes susceptibles de briser la silhouette du chasseur comme les rayures du pelage d'un tigre ou les tâches d'un léopard ou l'usage d'une Ghillie suit) constituent un minimum recommandable. On recommande souvent les couleurs vert, marron et parfois noire. Mais rares sont les animaux qui ont une bonne vision des couleurs ; c'est pourquoi, afin d'éviter les accidents avec les autres chasseurs, on voit parfois recommander des camouflages qui font intervenir le gris et l'orange. Cela peut aussi aller jusqu'à des filets de camouflage quand on reste à l'affût. Cela est recommandé quand on prévoit le passage d'animaux à un endroit où l'on peut s'installer de manière relativement longue (l'attente peut durer des heures).
 Les photographes équipés d'appareils qui pourraient être trop visibles (par exemple, téléobjectifs haut de gamme de couleur blanche, appareils métallisés) trouveront utile de les habiller d'une chaussette ou de scotch décollable sombre comme le traditionnel Gaffer (nom générique emprunté à la langue anglaise).
 La billebaude intervient lorsque le chasseur se déplace. Comme à l'affût, mais plus encore, il est alors nécessaire d'être très attentif à réduire les bruits (l'ouïe est une défense passive très efficace dans les couverts épais) et, par exemple, il faut faire attention à ne pas marcher sur les branchages ou les graviers. Mais les vêtements et les objets portés ne doivent pas provoquer de son trop facilement discernable lors des déplacements (on pensera par exemple à des sons provenant habituellement du randonneur en mouvement comme les mouvements de l'eau dans une gourde, le choc d'un mousqueton sur un support, le froissement d'un vêtement rigide, le grincement de certains tissus frottés sur le cuir).
@@ -559,31 +644,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Chasse_photographique</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Chasse_photographique</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Éthique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chasseur photographe se veut d'abord un témoin de la vie sauvage. C'est un naturaliste qui, à force de documentation et d'observations, connaît et respecte ses sujets. L'une de ses préoccupations premières est de ne pas perturber les espèces photographiées. Cela peut mener à ne pas réaliser une photographie qui exposerait un sujet à un dérangement trop important.
 Loin d'une pratique solitaire et égoïste, la notion de partage est très importante au sein de la communauté des chasseurs photographes. En témoignent les nombreux forums consacrés à ce sujet sur Internet.
@@ -592,31 +679,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Chasse_photographique</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Chasse_photographique</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Comportement du chasseur photographe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Il est évident que toute présence, même minime ou temporaire, sur le terrain va provoquer un dérangement de l'animal, parfois à des moments de grande sensibilité (par exemple, la perturbation des animaux en période de parade peut réduire les chances de reproduction et risque de mettre en cause -au moins partiellement- les possibilités de survie de l'espèce).
 Malheureusement, la chasse photo comme toute activité humaine n'échappe pas à quelques dérives de la part de photographes peu respectueux de la faune sauvage. Néanmoins, le chasseur photographe se doit de respecter au moins deux notions fondamentales :
@@ -625,31 +714,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Chasse_photographique</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Chasse_photographique</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>"Chasseurs" célèbres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Yann Arthus-Bertrand
 Christian Zuber</t>
